--- a/data/trans_orig/TRANQUILIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TRANQUILIDAD-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bienestar emocional - Tranquilidad escala 0-10</t>
+          <t>Bienestar emocional - Tranquilidad escala 0-10 (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TRANQUILIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TRANQUILIDAD-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,41</t>
+          <t>5,67; 6,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,38</t>
+          <t>6,78; 7,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 7,32</t>
+          <t>6,27; 7,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 5,5</t>
+          <t>4,94; 5,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,89</t>
+          <t>6,46; 6,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 6,99</t>
+          <t>5,57; 7,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 5,74</t>
+          <t>5,35; 5,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 7,01</t>
+          <t>6,66; 7,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 7,01</t>
+          <t>6,05; 6,97</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 6,2</t>
+          <t>5,81; 6,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,02</t>
+          <t>7,85; 8,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 6,54</t>
+          <t>6,11; 6,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 5,67</t>
+          <t>5,5; 5,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,74</t>
+          <t>4,91; 7,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 5,67</t>
+          <t>5,23; 5,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 5,88</t>
+          <t>5,7; 5,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,18</t>
+          <t>6,44; 8,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 6,05</t>
+          <t>5,73; 6,06</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 6,54</t>
+          <t>5,98; 6,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 8,14</t>
+          <t>7,7; 8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 6,69</t>
+          <t>6,25; 6,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 5,89</t>
+          <t>5,62; 6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,52</t>
+          <t>7,1; 7,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 6,14</t>
+          <t>5,7; 6,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 6,09</t>
+          <t>5,86; 6,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,79</t>
+          <t>7,47; 7,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 6,33</t>
+          <t>6,01; 6,32</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 6,22</t>
+          <t>5,94; 6,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 8,68</t>
+          <t>7,78; 8,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 6,59</t>
+          <t>6,28; 6,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 5,62</t>
+          <t>5,56; 5,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,42</t>
+          <t>5,6; 7,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 5,89</t>
+          <t>5,58; 5,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 5,86</t>
+          <t>5,76; 5,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 7,84</t>
+          <t>6,57; 7,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 6,19</t>
+          <t>5,95; 6,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TRANQUILIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TRANQUILIDAD-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,13</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,35</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>5,59</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>5,65</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,88; 7,51</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 7,38</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 5,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>5,67; 6,57</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 7,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 5,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 7,38</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>6,42; 6,86</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 7,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 5,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>4,94; 5,68</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,46; 6,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 5,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 7,03</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>6,68; 7,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 6,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 5,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>5,35; 5,93</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 7,02</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 5,77</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 6,97</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,94</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,99</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>5,67</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>7,72</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>5,83</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,79; 8,09</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 6,54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 6,36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>5,81; 6,18</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,85; 8,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,12; 6,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 6,54</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,36; 7,63</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 5,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 6,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>5,5; 5,83</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 7,7</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>6,46; 6,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 5,67</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,63; 7,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 6,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 6,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>5,7; 5,94</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 8,12</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 6,51</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 6,06</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,96</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,26</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>5,87</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,95</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>6,05</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,73; 8,17</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 6,72</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 6,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>5,98; 6,53</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 8,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 6,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 6,72</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,05; 7,47</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 6,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 6,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>5,62; 6,09</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 7,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 6,31</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 6,12</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>7,46; 7,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 6,32</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 6,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>5,86; 6,23</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,47; 7,78</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 6,1</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 6,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,08</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>5,68</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5,87</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,74; 7,97</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 6,59</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 6,12</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>5,94; 6,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 8,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 6,12</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 6,59</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,18; 7,39</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 5,9</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 6,39</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>5,56; 5,83</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 7,41</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 6,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 5,9</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,48; 7,63</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 6,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 6,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>5,76; 5,98</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 7,85</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 6,23</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 6,18</t>
         </is>
       </c>
     </row>
